--- a/public/archivos/0001MESAGENERAL.xlsx
+++ b/public/archivos/0001MESAGENERAL.xlsx
@@ -15,6 +15,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts>
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="1" formatCode="EEEEE dd MMMMM yyyy"/>
   </numFmts>
   <fonts>
     <font>
@@ -27,6 +28,16 @@
     <font>
       <sz val="10.0"/>
       <color rgb="000000"/>
+      <name val="SansSerif"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20.0"/>
+      <color rgb="000000"/>
       <name val="Tahoma"/>
       <b val="true"/>
       <i val="false"/>
@@ -37,8 +48,8 @@
     <font>
       <sz val="10.0"/>
       <color rgb="000000"/>
-      <name val="SansSerif"/>
-      <b val="false"/>
+      <name val="Tahoma"/>
+      <b val="true"/>
       <i val="false"/>
       <u val="none"/>
       <strike val="false"/>
@@ -48,6 +59,26 @@
   <fills>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -98,6 +129,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -110,11 +156,27 @@
       <protection hidden="false" locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="right" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="5" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="center" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="7" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="center" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="center" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -135,12 +197,12 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1624211687" name="Picture">
+        <xdr:cNvPr id="1968552224" name="Picture">
 </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
@@ -179,13 +241,17 @@
     <col min="2" max="2" customWidth="1" width="11.666667"/>
     <col min="3" max="3" customWidth="1" width="14.5"/>
     <col min="4" max="4" customWidth="1" width="2.1666667"/>
-    <col min="5" max="5" customWidth="1" width="16.666666"/>
-    <col min="6" max="6" customWidth="1" width="16.666666"/>
-    <col min="7" max="7" customWidth="1" width="16.666666"/>
-    <col min="8" max="8" customWidth="1" width="17.5"/>
+    <col min="5" max="5" customWidth="1" width="11.166667"/>
+    <col min="6" max="6" customWidth="1" width="5.5"/>
+    <col min="7" max="7" customWidth="1" width="1.1666666"/>
+    <col min="8" max="8" customWidth="1" width="4.1666665"/>
+    <col min="9" max="9" customWidth="1" width="11.333333"/>
+    <col min="10" max="10" customWidth="1" width="11.833333"/>
+    <col min="11" max="11" customWidth="1" width="4.8333335"/>
+    <col min="12" max="12" customWidth="1" width="3.3333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="99">
+    <row r="1" customHeight="1" ht="20">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr"/>
@@ -194,100 +260,88 @@
       <c r="F1" s="1" t="inlineStr"/>
       <c r="G1" s="1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2" customHeight="1" ht="96">
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2" customHeight="1" ht="20">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Pagina 1 de</t>
+          </r>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"> 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr"/>
       <c r="H2" s="1" t="inlineStr"/>
-    </row>
-    <row r="3" customHeight="1" ht="43">
+      <c r="I2" s="5">
+        <v>43099.4449652778</v>
+      </c>
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="5" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr"/>
+    </row>
+    <row r="3" customHeight="1" ht="27">
       <c r="A3" s="1" t="inlineStr"/>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr"/>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4" customHeight="1" ht="20">
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr"/>
+      <c r="L3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4" customHeight="1" ht="30">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Código</t>
-          </r>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DIrección</t>
-          </r>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Mesa</t>
-          </r>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Departamento</t>
-          </r>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CIudad</t>
-          </r>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr"/>
-    </row>
-    <row r="5" customHeight="1" ht="20">
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MESAS DE VOTACIÓN</t>
+          </r>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr"/>
+      <c r="L4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5" customHeight="1" ht="19">
       <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" s="4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Cl 56 F Sur # 91 D-14</t>
-          </r>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">BOYACA</t>
-          </r>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DUITAMA</t>
-          </r>
-        </is>
-      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr"/>
       <c r="H5" s="1" t="inlineStr"/>
-    </row>
-    <row r="6" customHeight="1" ht="105">
+      <c r="I5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6" customHeight="1" ht="23">
       <c r="A6" s="1" t="inlineStr"/>
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" s="1" t="inlineStr"/>
@@ -296,40 +350,56 @@
       <c r="F6" s="1" t="inlineStr"/>
       <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="inlineStr"/>
     </row>
     <row r="7" customHeight="1" ht="20">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Cl 56 F Sur # 91 D-14</t>
-          </r>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">BOYACA</t>
-          </r>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DUITAMA</t>
-          </r>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-    </row>
-    <row r="8" customHeight="1" ht="439">
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Código</t>
+          </r>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DIrección</t>
+          </r>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Mesa</t>
+          </r>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr"/>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Departamento</t>
+          </r>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr"/>
+      <c r="I7" s="7" t="inlineStr"/>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CIudad</t>
+          </r>
+        </is>
+      </c>
+      <c r="K7" s="7" t="inlineStr"/>
+      <c r="L7" s="1" t="inlineStr"/>
+    </row>
+    <row r="8" customHeight="1" ht="1">
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" s="1" t="inlineStr"/>
@@ -338,16 +408,133 @@
       <c r="F8" s="1" t="inlineStr"/>
       <c r="G8" s="1" t="inlineStr"/>
       <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="inlineStr"/>
+      <c r="J8" s="1" t="inlineStr"/>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9" customHeight="1" ht="25">
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Carrera 87 A No. 6 A - 23  </t>
+          </r>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="8" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BOGOTA D.C.</t>
+          </r>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr"/>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BOGOTA. D.C.</t>
+          </r>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="16">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr"/>
+      <c r="G10" s="1" t="inlineStr"/>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr"/>
+      <c r="J10" s="1" t="inlineStr"/>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Cl 56 F Sur # 91 D-14</t>
+          </r>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BOYACA</t>
+          </r>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DUITAMA</t>
+          </r>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="621">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rIdDr1"/>
 </worksheet>
 </file>